--- a/data/outageParams.xlsx
+++ b/data/outageParams.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -262,9 +263,9 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ _F_t_-;\-* #,##0.00\ _F_t_-;_-* &quot;-&quot;??\ _F_t_-;_-@_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -567,11 +568,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -609,7 +610,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" applyFill="0" applyProtection="0">
       <alignment horizontal="right"/>
